--- a/TimingAnalysisReadme_20180612.xlsx
+++ b/TimingAnalysisReadme_20180612.xlsx
@@ -556,15 +556,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Only make changes to file timing_analysis_v6.tcl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Step 5:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Step 1: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report laguna registers utilization in each SLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S24_laguna_rpt.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if the variable is set to 1, the corresponding section will be analyzed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  make changes from line 106 to line 129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  make changes to line 168, setting the dcp file name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line 189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only make changes to file timing_analysis_v7.tcl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -579,7 +619,7 @@
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t>timing_analysis_pkg_v6.tcl, timing_analysis_v6.tcl and your dcp file</t>
+      <t>timing_analysis_pkg_v7.tcl, timing_analysis_v7.tcl and your dcp file</t>
     </r>
     <r>
       <rPr>
@@ -590,46 +630,6 @@
       </rPr>
       <t xml:space="preserve"> in the same folder</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Report laguna registers utilization in each SLR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S24_laguna_rpt.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if the variable is set to 1, the corresponding section will be analyzed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  make changes from line 106 to line 129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 166</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  make changes to line 168, setting the dcp file name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 172</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line 189</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="44" spans="1:3" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44" s="14"/>
     </row>
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1809,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="2" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -1832,7 +1832,7 @@
         <v>132</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>122</v>
@@ -1881,7 +1881,7 @@
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="16"/>
       <c r="E8" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>133</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>124</v>
@@ -1936,7 +1936,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1944,7 +1944,7 @@
         <v>134</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>128</v>
@@ -1969,10 +1969,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -1992,7 +1992,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
